--- a/Backend/static/export_temp/exported_lists.xlsx
+++ b/Backend/static/export_temp/exported_lists.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,82 +465,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">New List </t>
+          <t>Nihar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">helo new list is here </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>18</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>List 826</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>description for 826</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nihar</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">Description for nihar list and it is list desc
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fifth Reocrd</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>it is for 5th</t>
         </is>
       </c>
     </row>

--- a/Backend/static/export_temp/exported_lists.xlsx
+++ b/Backend/static/export_temp/exported_lists.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,386 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pending list</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>safsdfdfgs</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ajit Rajput</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dsfg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dfghdfhg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>dhfh d</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dfghdgdfrg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>dfgdg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dfdfg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fhdgddfg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>26</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>fghdh</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>dfgy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>fghf</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>dhdyhdre</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>28</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dfgyhfh</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>dfghydty</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsdfdsf</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sdfgdsf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>30</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dfdgf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsfdsf</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>sdfsdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>fghf</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>fghfgh</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>fgdhf</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>fghfh</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>fghf</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>hgfhdg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>fghg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>hfghfgh</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>fghg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>fghf</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>fghfgh</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>fghgfh</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>dfgh</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>fghfg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
